--- a/문서함/기획/카드/카드.xlsx
+++ b/문서함/기획/카드/카드.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="카드 용어 정리" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="카드 분류" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="카드 효과" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="공격 카드" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="기술 카드" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="능력 카드" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="카드 용어 정리" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="카드 분류" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="카드 효과" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="공격 카드" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="기술 카드" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="능력 카드" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>이름</t>
   </si>
@@ -156,6 +156,93 @@
     <t>카드 이름</t>
   </si>
   <si>
+    <t>타입</t>
+  </si>
+  <si>
+    <t>코스트</t>
+  </si>
+  <si>
+    <t>사거리</t>
+  </si>
+  <si>
+    <t>공격 범위(타일 수)</t>
+  </si>
+  <si>
+    <t>피해량</t>
+  </si>
+  <si>
+    <t>타격</t>
+  </si>
+  <si>
+    <t>인접/단일</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 내에 선택한 타일 [단일 타격] 로 6피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>찌르기</t>
+  </si>
+  <si>
+    <t>인접/관통</t>
+  </si>
+  <si>
+    <t>[상하좌우 2칸] 내에 [관통] 직선상에 있는 모든 적에게 8 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>어깨치기</t>
+  </si>
+  <si>
+    <t>인접/돌진</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 중 1칸 이동합니다. 향한 방향에 있는 [돌진] 적에게 6 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>휩쓸기</t>
+  </si>
+  <si>
+    <t>인접/횡베기</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 중 선택한 방향으로 [횡베기]를 합니다. 적중한 적에게 5피해를 주며 뒤로 1칸 밀어냅니다.</t>
+  </si>
+  <si>
+    <t>처형</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 내에 선택한 타일 [단일 타격] 로치명적인 피해를 줍니다. 사용 후 플레이어는 해당 턴 동안 [공격력 감소]상태가 됩니다.</t>
+  </si>
+  <si>
+    <t>방패 가격</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 내에 선택한 타일 [단일 타격]로 6피해를 줍니다. 피해를 준 수치만큼 [방어도]를 획득합니다.</t>
+  </si>
+  <si>
+    <t>회전 베기</t>
+  </si>
+  <si>
+    <t>인접/전방위</t>
+  </si>
+  <si>
+    <t>몸을 빠르게 회전하여 [전방위]를 타격하여 6 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>단일</t>
+  </si>
+  <si>
+    <t>관통</t>
+  </si>
+  <si>
+    <t>횡베기</t>
+  </si>
+  <si>
+    <t>전방위</t>
+  </si>
+  <si>
+    <t>돌진</t>
+  </si>
+  <si>
     <t>카드 효과</t>
   </si>
   <si>
@@ -163,45 +250,6 @@
   </si>
   <si>
     <t>효과 설명</t>
-  </si>
-  <si>
-    <t xml:space="preserve">찌르기 </t>
-  </si>
-  <si>
-    <t>공격</t>
-  </si>
-  <si>
-    <t>지정한 적에게 6의 피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>강타</t>
-  </si>
-  <si>
-    <t>지정한 적에게 8의 피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>강철 분쇄</t>
-  </si>
-  <si>
-    <t>적에게 18의 피해를 주고 '취약'을 1 부여합니다. 턴 종료시 덱에 남아 있을 경우 소멸합니다.</t>
-  </si>
-  <si>
-    <t>혈점 찌르기</t>
-  </si>
-  <si>
-    <t>체력 4를 소모하며, 적에게 10의 피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>칼자루 치기</t>
-  </si>
-  <si>
-    <t>카드 뽑을시 자동 발동, 적에게 3의 피해를 주고 '약화' 1을 부여합니다.</t>
-  </si>
-  <si>
-    <t>참수</t>
-  </si>
-  <si>
-    <t>적에게 20의 피해를 줍니다. 적의 체력이 30% 이하라면 피해량이 2배가 됩니다. 사용 시 소멸합니다.</t>
   </si>
   <si>
     <t>낡은 방패</t>
@@ -244,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -256,13 +304,24 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24.0"/>
+      <color rgb="FF555555"/>
+      <name val="Sans-serif"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -290,6 +349,7 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -320,6 +380,10 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,11 +841,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.38"/>
+    <col customWidth="1" min="1" max="1" width="8.38"/>
+    <col customWidth="1" min="2" max="2" width="9.13"/>
     <col customWidth="1" min="3" max="3" width="8.25"/>
-    <col customWidth="1" min="4" max="4" width="8.63"/>
-    <col customWidth="1" min="5" max="5" width="63.5"/>
-    <col customWidth="1" min="6" max="6" width="51.0"/>
+    <col customWidth="1" min="4" max="4" width="7.13"/>
+    <col customWidth="1" min="5" max="5" width="14.5"/>
+    <col customWidth="1" min="6" max="6" width="8.63"/>
+    <col customWidth="1" min="7" max="7" width="63.5"/>
+    <col customWidth="1" min="8" max="8" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -789,266 +856,351 @@
         <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>51</v>
+      <c r="E2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
       </c>
       <c r="D4" s="1">
         <v>2.0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>55</v>
+      <c r="E4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
       </c>
       <c r="D7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1">
         <v>2.0</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" s="4"/>
+      <c r="D8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9">
-      <c r="E9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10">
-      <c r="E10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11">
-      <c r="E11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12">
-      <c r="E12" s="4"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13">
-      <c r="E13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14">
-      <c r="E14" s="4"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15">
-      <c r="E15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16">
-      <c r="E16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17">
-      <c r="E17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18">
-      <c r="E18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19">
-      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20">
-      <c r="E20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21">
-      <c r="E21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22">
-      <c r="E22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23">
-      <c r="E23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24">
-      <c r="E24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25">
-      <c r="E25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26">
-      <c r="E26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27">
-      <c r="E27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28">
-      <c r="E28" s="4"/>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29">
-      <c r="E29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30">
-      <c r="E30" s="4"/>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31">
-      <c r="E31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32">
-      <c r="E32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33">
-      <c r="E33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34">
-      <c r="E34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35">
-      <c r="E35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36">
-      <c r="E36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37">
-      <c r="E37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38">
-      <c r="E38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39">
-      <c r="E39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40">
-      <c r="E40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41">
-      <c r="E41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42">
-      <c r="E42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43">
-      <c r="E43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44">
-      <c r="E44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45">
-      <c r="E45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46">
-      <c r="E46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47">
-      <c r="E47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48">
-      <c r="E48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49">
-      <c r="E49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50">
-      <c r="E50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51">
-      <c r="E51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52">
-      <c r="E52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53">
-      <c r="E53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54">
-      <c r="E54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55">
-      <c r="E55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56">
-      <c r="E56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="G57" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1080,21 +1232,21 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -1103,15 +1255,15 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -1120,15 +1272,15 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
@@ -1137,7 +1289,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -1326,21 +1478,21 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -1349,15 +1501,15 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -1366,7 +1518,7 @@
         <v>2.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">

--- a/문서함/기획/카드/카드.xlsx
+++ b/문서함/기획/카드/카드.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="카드 용어 정리" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="카드 분류" sheetId="2" r:id="rId6"/>
-    <sheet state="visible" name="카드 효과" sheetId="3" r:id="rId7"/>
-    <sheet state="visible" name="공격 카드" sheetId="4" r:id="rId8"/>
-    <sheet state="visible" name="기술 카드" sheetId="5" r:id="rId9"/>
-    <sheet state="visible" name="능력 카드" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="시트6" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="카드 용어 정리" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="카드 분류" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="카드 효과" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="공격 카드" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="기술 카드" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="능력 카드" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
   <si>
     <t>이름</t>
   </si>
@@ -81,208 +82,289 @@
     <t>효과</t>
   </si>
   <si>
-    <t>의도</t>
-  </si>
-  <si>
-    <t>획득처</t>
+    <t>집중 N</t>
+  </si>
+  <si>
+    <t>N 턴 동안 공격력 50% 증가</t>
+  </si>
+  <si>
+    <t>표적 N</t>
+  </si>
+  <si>
+    <t>N 턴 동안 방어력 50% 감소</t>
+  </si>
+  <si>
+    <t>혼란 N</t>
+  </si>
+  <si>
+    <t>N 턴 동안 공격력 50% 감소</t>
+  </si>
+  <si>
+    <t>고립 N</t>
+  </si>
+  <si>
+    <t>N 턴 동안 이동 불가</t>
+  </si>
+  <si>
+    <t>마나 축복</t>
+  </si>
+  <si>
+    <t>마나(코스트) +1</t>
+  </si>
+  <si>
+    <t>출혈 N</t>
+  </si>
+  <si>
+    <t>N 턴 동안 턴 시작시 최대 체력 5% 피해</t>
+  </si>
+  <si>
+    <t>방어도 N</t>
+  </si>
+  <si>
+    <t>N 턴 동안 임시 추가 체력</t>
+  </si>
+  <si>
+    <t>중독 N</t>
+  </si>
+  <si>
+    <t>N 턴 동안 턴 시작 시 최대 체력 5% 피해</t>
+  </si>
+  <si>
+    <t>부상 N</t>
+  </si>
+  <si>
+    <t>N 턴 동안 손패 카드 중 랜덤으로 소모 마나(코스트) 1 증가</t>
+  </si>
+  <si>
+    <t>카드 이름</t>
+  </si>
+  <si>
+    <t>타입</t>
+  </si>
+  <si>
+    <t>공격 가능 범위 타입</t>
+  </si>
+  <si>
+    <t>코스트</t>
+  </si>
+  <si>
+    <t>사거리</t>
+  </si>
+  <si>
+    <t>공격 범위(타일 수)</t>
+  </si>
+  <si>
+    <t>피해량</t>
+  </si>
+  <si>
+    <t>본인 효과 부여</t>
+  </si>
+  <si>
+    <t>적 효과 부여</t>
+  </si>
+  <si>
+    <t>타격</t>
+  </si>
+  <si>
+    <t>인접/단일</t>
+  </si>
+  <si>
+    <t>인접 1칸</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 내에 선택한 타일 [단일 타격] 로 6피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>찌르기</t>
+  </si>
+  <si>
+    <t>인접/관통</t>
+  </si>
+  <si>
+    <t>상하좌우 2칸</t>
+  </si>
+  <si>
+    <t>[상하좌우 2칸] 내에 [관통] 직선상에 있는 모든 적에게 8 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>어깨치기</t>
+  </si>
+  <si>
+    <t>인접/돌진</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 중 1칸 이동합니다. 향한 방향에 있는 [돌진] 적에게 6 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>휩쓸기</t>
+  </si>
+  <si>
+    <t>인접/횡베기</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 중 선택한 방향으로 [횡베기]를 합니다. 적중한 적에게 5피해를 주며 뒤로 1칸 밀어냅니다.</t>
+  </si>
+  <si>
+    <t>처형</t>
+  </si>
+  <si>
+    <t>혼란 1</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 내에 선택한 타일 [단일 타격] 로치명적인 피해를 줍니다. 사용 후 플레이어는 해당 턴 동안 [혼란 1]을 부여합니다.</t>
+  </si>
+  <si>
+    <t>방패 가격</t>
+  </si>
+  <si>
+    <t>방어도</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 내에 선택한 타일 [단일 타격]로 6피해를 줍니다. 피해를 준 수치만큼 [방어도]를 획득합니다.</t>
+  </si>
+  <si>
+    <t>회전 베기</t>
+  </si>
+  <si>
+    <t>인접/전방위</t>
+  </si>
+  <si>
+    <t>[인접 1칸] 몸을 빠르게 회전하여 [전방위]를 타격하여 6 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>사격</t>
+  </si>
+  <si>
+    <t>투사/단일</t>
+  </si>
+  <si>
+    <t>인접 2칸</t>
+  </si>
+  <si>
+    <t>[인접 2칸] 내의 적 하나를 조준하여 공격합니다. 대상에게 5 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>정밀 사격</t>
+  </si>
+  <si>
+    <t>표적 1</t>
+  </si>
+  <si>
+    <t>[인접 2칸] 내의 적 하나를 조준하여 공격합니다. 대상에게 [표적 1]과 6 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>관통 화살</t>
+  </si>
+  <si>
+    <t>투사/관통</t>
+  </si>
+  <si>
+    <t>X자 2칸</t>
+  </si>
+  <si>
+    <t>[X자 2칸] 중 지정한 방향으로 [관통]을 하여 모든 적을 공격합니다. 적중한 모든 적에게 [표적 1]과 6 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>그림자 묶기</t>
+  </si>
+  <si>
+    <t>고립 1</t>
+  </si>
+  <si>
+    <t>[인접 2칸] 내에 적 하나를 조준하여 공격합니다. 대상에게 [고립 1]과 5 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>마력 폭탄</t>
+  </si>
+  <si>
+    <t>투사/폭팔</t>
+  </si>
+  <si>
+    <t>눈꽃 모양 2칸</t>
+  </si>
+  <si>
+    <t>[눈꽃 모양 2칸] 내에 지정한 타일에 대상을 맞추고 폭발합니다. 대상은 10 피해를 받고 주변 적들에게는 스플래시 5 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>견제 사격</t>
+  </si>
+  <si>
+    <t>다음 인접 카드 50% 증가</t>
+  </si>
+  <si>
+    <t>[인접 2칸] 내에 적을 견제합니다. 대상에게 [고립 1]과 [다음 카드 인접 카드 강화], 4 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>단일</t>
+  </si>
+  <si>
+    <t>관통</t>
+  </si>
+  <si>
+    <t>횡베기</t>
+  </si>
+  <si>
+    <t>전방위</t>
+  </si>
+  <si>
+    <t>돌진</t>
+  </si>
+  <si>
+    <t>카드 효과</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소모 마나 </t>
+  </si>
+  <si>
+    <t>효과 설명</t>
+  </si>
+  <si>
+    <t>낡은 방패</t>
+  </si>
+  <si>
+    <t>기술</t>
   </si>
   <si>
     <t>일반</t>
   </si>
   <si>
-    <t>아무런 효과가 없는 일반 카드</t>
-  </si>
-  <si>
-    <t>플레이어가 일반적으로 회득을 하여 사용하는 카드.</t>
-  </si>
-  <si>
-    <t>카드 추가, 상점, 전투 클리어, 시체 파밍, 마나석</t>
-  </si>
-  <si>
-    <t>휘발</t>
-  </si>
-  <si>
-    <t>손에 든 채로 턴을 종료하면, 버려지는 대신 소멸합니다.</t>
+    <t>방어도 5를 얻습니다.</t>
+  </si>
+  <si>
+    <t>무기 교체</t>
+  </si>
+  <si>
+    <t>시동</t>
+  </si>
+  <si>
+    <t>방어도 4를 얻고 이번 전투에서 사용한 특수 카드 1장을 덱으로 가져옵니다.</t>
+  </si>
+  <si>
+    <t>패링</t>
   </si>
   <si>
     <t>보존</t>
   </si>
   <si>
-    <t>카드를 사용하지 않아도, 턴을 종료 시 버려지지 않고 손패에 남습니다.</t>
-  </si>
-  <si>
-    <t>특정 타이밍에 써야하는 카드가 턴 종료 시 버려지는 불합리함을 해소합니다. 원하는 콤보 파츠가 모일때 까지 기다리거나 위급한 상황에 사용 가능하게 합니다.</t>
-  </si>
-  <si>
-    <t>즉발</t>
-  </si>
-  <si>
-    <t>카드를 뽑는 즉시, 비용 소비 없이 자동으로 사용합니다.</t>
-  </si>
-  <si>
-    <t>마나와 행동력 소모 없이 즉시 사용합니다. 플레이어에게는 '공짜 이득'이라는 쾌감을 주고 게임 템포를 빠르게 만듭니다.</t>
-  </si>
-  <si>
-    <t>상점, 시체 파밍, 마나석</t>
+    <t>방어도 9를 얻습니다. 사용하지 않아도 턴 종료시 버려지지 않습니다.</t>
+  </si>
+  <si>
+    <t>광전사의 피</t>
+  </si>
+  <si>
+    <t>능력</t>
   </si>
   <si>
     <t>혈채</t>
   </si>
   <si>
-    <t>마나'대신 '체력'을 비용으로 지불합니다.</t>
-  </si>
-  <si>
-    <t>마나 부족 상황에서도 카드를 쓸 수있게 해주지만, 플레이어의 체력을 소모하기 때문에 체력 관리와 '체력 회복' 수단과의 시너지를 고려하게 유도합니다.</t>
+    <t>체력 3를 소모하며, 전투가 끝날때 까지 힘 3을 얻습니다. 공격 카드를 사용할때 마다 체력 3씩 소모합니다.</t>
+  </si>
+  <si>
+    <t>전술의 대가</t>
   </si>
   <si>
     <t>소멸</t>
-  </si>
-  <si>
-    <t>사용 후 카드 더미로 가지 않고 게임(전투)에서 제거됩니다.</t>
-  </si>
-  <si>
-    <t>일회성 강력한 효과를 제한하는 밸런스 장치입니다.</t>
-  </si>
-  <si>
-    <t>시동</t>
-  </si>
-  <si>
-    <t>사용한 특수(휘발, 즉발, 소멸) 카드 중  랜덤으로 1장을 손패으로 가져옵니다.</t>
-  </si>
-  <si>
-    <t>한 번 쓰면 사라지는 '소멸'이나, 타이밍을 놓쳐 사라진 '휘발'카드 등 사용에 제약이 있는 강력한 카드들에게 두번째 기회를 부여합니다.</t>
-  </si>
-  <si>
-    <t>카드 이름</t>
-  </si>
-  <si>
-    <t>타입</t>
-  </si>
-  <si>
-    <t>코스트</t>
-  </si>
-  <si>
-    <t>사거리</t>
-  </si>
-  <si>
-    <t>공격 범위(타일 수)</t>
-  </si>
-  <si>
-    <t>피해량</t>
-  </si>
-  <si>
-    <t>타격</t>
-  </si>
-  <si>
-    <t>인접/단일</t>
-  </si>
-  <si>
-    <t>[인접 1칸] 내에 선택한 타일 [단일 타격] 로 6피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>찌르기</t>
-  </si>
-  <si>
-    <t>인접/관통</t>
-  </si>
-  <si>
-    <t>[상하좌우 2칸] 내에 [관통] 직선상에 있는 모든 적에게 8 피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>어깨치기</t>
-  </si>
-  <si>
-    <t>인접/돌진</t>
-  </si>
-  <si>
-    <t>[인접 1칸] 중 1칸 이동합니다. 향한 방향에 있는 [돌진] 적에게 6 피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>휩쓸기</t>
-  </si>
-  <si>
-    <t>인접/횡베기</t>
-  </si>
-  <si>
-    <t>[인접 1칸] 중 선택한 방향으로 [횡베기]를 합니다. 적중한 적에게 5피해를 주며 뒤로 1칸 밀어냅니다.</t>
-  </si>
-  <si>
-    <t>처형</t>
-  </si>
-  <si>
-    <t>[인접 1칸] 내에 선택한 타일 [단일 타격] 로치명적인 피해를 줍니다. 사용 후 플레이어는 해당 턴 동안 [공격력 감소]상태가 됩니다.</t>
-  </si>
-  <si>
-    <t>방패 가격</t>
-  </si>
-  <si>
-    <t>[인접 1칸] 내에 선택한 타일 [단일 타격]로 6피해를 줍니다. 피해를 준 수치만큼 [방어도]를 획득합니다.</t>
-  </si>
-  <si>
-    <t>회전 베기</t>
-  </si>
-  <si>
-    <t>인접/전방위</t>
-  </si>
-  <si>
-    <t>몸을 빠르게 회전하여 [전방위]를 타격하여 6 피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>단일</t>
-  </si>
-  <si>
-    <t>관통</t>
-  </si>
-  <si>
-    <t>횡베기</t>
-  </si>
-  <si>
-    <t>전방위</t>
-  </si>
-  <si>
-    <t>돌진</t>
-  </si>
-  <si>
-    <t>카드 효과</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소모 마나 </t>
-  </si>
-  <si>
-    <t>효과 설명</t>
-  </si>
-  <si>
-    <t>낡은 방패</t>
-  </si>
-  <si>
-    <t>기술</t>
-  </si>
-  <si>
-    <t>방어도 5를 얻습니다.</t>
-  </si>
-  <si>
-    <t>무기 교체</t>
-  </si>
-  <si>
-    <t>방어도 4를 얻고 이번 전투에서 사용한 특수 카드 1장을 덱으로 가져옵니다.</t>
-  </si>
-  <si>
-    <t>패링</t>
-  </si>
-  <si>
-    <t>방어도 9를 얻습니다. 사용하지 않아도 턴 종료시 버려지지 않습니다.</t>
-  </si>
-  <si>
-    <t>광전사의 피</t>
-  </si>
-  <si>
-    <t>능력</t>
-  </si>
-  <si>
-    <t>체력 3를 소모하며, 전투가 끝날때 까지 힘 3을 얻습니다. 공격 카드를 사용할때 마다 체력 3씩 소모합니다.</t>
-  </si>
-  <si>
-    <t>전술의 대가</t>
   </si>
   <si>
     <t>시동 효과를 발동할 때마다 방어도 3을 얻습니다.</t>
@@ -292,6 +374,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m, d"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -305,23 +390,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24.0"/>
-      <color rgb="FF555555"/>
-      <name val="Sans-serif"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -330,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -346,10 +424,18 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -379,6 +465,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -589,6 +679,20 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="37.75"/>
   </cols>
@@ -638,7 +742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -698,139 +802,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="64.0"/>
-    <col customWidth="1" min="3" max="3" width="78.88"/>
-    <col customWidth="1" min="4" max="4" width="63.25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -841,366 +812,100 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.38"/>
-    <col customWidth="1" min="2" max="2" width="9.13"/>
-    <col customWidth="1" min="3" max="3" width="8.25"/>
-    <col customWidth="1" min="4" max="4" width="7.13"/>
-    <col customWidth="1" min="5" max="5" width="14.5"/>
-    <col customWidth="1" min="6" max="6" width="8.63"/>
-    <col customWidth="1" min="7" max="7" width="63.5"/>
-    <col customWidth="1" min="8" max="8" width="16.0"/>
+    <col customWidth="1" min="2" max="2" width="34.5"/>
+    <col customWidth="1" min="3" max="3" width="25.88"/>
+    <col customWidth="1" min="4" max="4" width="31.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9">
-      <c r="G9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10">
-      <c r="G10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11">
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26">
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32">
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33">
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34">
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35">
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36">
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37">
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38">
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39">
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40">
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41">
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42">
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43">
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44">
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50">
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51">
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52">
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53">
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56">
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57">
-      <c r="G57" s="4"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1217,236 +922,575 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.38"/>
-    <col customWidth="1" min="3" max="3" width="8.25"/>
-    <col customWidth="1" min="4" max="4" width="8.63"/>
-    <col customWidth="1" min="5" max="5" width="63.5"/>
-    <col customWidth="1" min="6" max="6" width="51.0"/>
+    <col customWidth="1" min="1" max="1" width="8.38"/>
+    <col customWidth="1" min="2" max="2" width="9.13"/>
+    <col customWidth="1" min="3" max="3" width="17.0"/>
+    <col customWidth="1" min="4" max="4" width="8.25"/>
+    <col customWidth="1" min="5" max="5" width="7.13"/>
+    <col customWidth="1" min="6" max="6" width="14.5"/>
+    <col customWidth="1" min="7" max="7" width="8.63"/>
+    <col customWidth="1" min="8" max="9" width="18.0"/>
+    <col customWidth="1" min="10" max="10" width="63.5"/>
+    <col customWidth="1" min="11" max="11" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>80</v>
+      <c r="E2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
         <v>1.0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>82</v>
+      <c r="E3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="E12" s="4"/>
-    </row>
     <row r="13">
-      <c r="E13" s="4"/>
+      <c r="A13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>46300.0</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14">
-      <c r="E14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15">
-      <c r="E15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16">
-      <c r="E16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17">
-      <c r="E17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18">
-      <c r="E18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19">
-      <c r="E19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20">
-      <c r="E20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21">
-      <c r="E21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22">
-      <c r="E22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23">
-      <c r="E23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24">
-      <c r="E24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25">
-      <c r="E25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26">
-      <c r="E26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27">
-      <c r="E27" s="4"/>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28">
-      <c r="E28" s="4"/>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29">
-      <c r="E29" s="4"/>
+      <c r="D29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30">
-      <c r="E30" s="4"/>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31">
-      <c r="E31" s="4"/>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32">
-      <c r="E32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33">
-      <c r="E33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34">
-      <c r="E34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35">
-      <c r="E35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36">
-      <c r="E36" s="4"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37">
-      <c r="E37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38">
-      <c r="E38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39">
-      <c r="E39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40">
-      <c r="E40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41">
-      <c r="E41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42">
-      <c r="E42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43">
-      <c r="E43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44">
-      <c r="E44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45">
-      <c r="E45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46">
-      <c r="E46" s="4"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47">
-      <c r="E47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48">
-      <c r="E48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49">
-      <c r="E49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50">
-      <c r="E50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51">
-      <c r="E51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52">
-      <c r="E52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53">
-      <c r="E53" s="4"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54">
-      <c r="E54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55">
-      <c r="E55" s="4"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56">
-      <c r="E56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="J57" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1472,53 +1516,299 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>102</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="E56" s="4"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="8.38"/>
+    <col customWidth="1" min="3" max="3" width="8.25"/>
+    <col customWidth="1" min="4" max="4" width="8.63"/>
+    <col customWidth="1" min="5" max="5" width="63.5"/>
+    <col customWidth="1" min="6" max="6" width="51.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D2" s="1">
         <v>0.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">

--- a/문서함/기획/카드/카드.xlsx
+++ b/문서함/기획/카드/카드.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="147">
   <si>
     <t>이름</t>
   </si>
@@ -49,6 +49,54 @@
     <t>손패로 가져올 카드 더미</t>
   </si>
   <si>
+    <t>인접</t>
+  </si>
+  <si>
+    <t>Adjacent</t>
+  </si>
+  <si>
+    <t>투사</t>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>단일 타격</t>
+  </si>
+  <si>
+    <t>SingleTarget</t>
+  </si>
+  <si>
+    <t>관통</t>
+  </si>
+  <si>
+    <t>Piercing</t>
+  </si>
+  <si>
+    <t>돌진</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>횡배기</t>
+  </si>
+  <si>
+    <t>Cleave</t>
+  </si>
+  <si>
+    <t>전방위</t>
+  </si>
+  <si>
+    <t>Omnidirectional</t>
+  </si>
+  <si>
+    <t>폭발</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
     <t>카드 분류</t>
   </si>
   <si>
@@ -151,6 +199,9 @@
     <t>사거리</t>
   </si>
   <si>
+    <t>지속 턴</t>
+  </si>
+  <si>
     <t>공격 범위(타일 수)</t>
   </si>
   <si>
@@ -295,19 +346,58 @@
     <t>[인접 2칸] 내에 적을 견제합니다. 대상에게 [고립 1]과 [다음 카드 인접 카드 강화], 4 피해를 줍니다.</t>
   </si>
   <si>
-    <t>단일</t>
-  </si>
-  <si>
-    <t>관통</t>
-  </si>
-  <si>
-    <t>횡베기</t>
-  </si>
-  <si>
-    <t>전방위</t>
-  </si>
-  <si>
-    <t>돌진</t>
+    <t>맹독의 늪</t>
+  </si>
+  <si>
+    <t>영역/디버프</t>
+  </si>
+  <si>
+    <t>턴 당 3</t>
+  </si>
+  <si>
+    <t>[인접 2칸] 내에 지정한 타일에 3턴간 유지되는 독 늪을 생성합니다. 진입 시 4피해를 입고 [혼란 1]을 얻습니다.</t>
+  </si>
+  <si>
+    <t>타오르는 잿불</t>
+  </si>
+  <si>
+    <t>영역/피해</t>
+  </si>
+  <si>
+    <t>턴 당 8</t>
+  </si>
+  <si>
+    <t>[인접 2칸] 내에 지정한 타일에 2턴간 유지되는 불길을 생성합니다. 진입 시 8피해를 입습니다.</t>
+  </si>
+  <si>
+    <t>거미줄 함정</t>
+  </si>
+  <si>
+    <t>영역/CC</t>
+  </si>
+  <si>
+    <t>[인접 2칸] 내에 지정한 타일에 끈적한 거미줄을 설치합니다. 진입 시 [고립 1]을 부여하고 사라집니다.</t>
+  </si>
+  <si>
+    <t>성역의 문양</t>
+  </si>
+  <si>
+    <t>영역/버프</t>
+  </si>
+  <si>
+    <t>방어도 5</t>
+  </si>
+  <si>
+    <t>[인접 2칸] 내에 지정한 타일에 3턴간 유지되는 성역을 생성합니다. 플레이어 진입 시 방어도 5를 얻습니다.</t>
+  </si>
+  <si>
+    <t>빛의 웅덩이</t>
+  </si>
+  <si>
+    <t>5 회복, 집중 1</t>
+  </si>
+  <si>
+    <t>[인접 2칸] 내에 지정한 타일에 2턴간 유지되는 빛의 웅덩이를 생성합니다. 플레이어 진입 시 즉시 5 회복, [집중 1]을 얻습니다.</t>
   </si>
   <si>
     <t>카드 효과</t>
@@ -408,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -435,6 +525,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,6 +830,70 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -758,7 +915,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -766,34 +923,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -819,89 +976,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -922,59 +1079,62 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.38"/>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
     <col customWidth="1" min="2" max="2" width="9.13"/>
     <col customWidth="1" min="3" max="3" width="17.0"/>
     <col customWidth="1" min="4" max="4" width="8.25"/>
-    <col customWidth="1" min="5" max="5" width="7.13"/>
-    <col customWidth="1" min="6" max="6" width="14.5"/>
-    <col customWidth="1" min="7" max="7" width="8.63"/>
-    <col customWidth="1" min="8" max="9" width="18.0"/>
-    <col customWidth="1" min="10" max="10" width="63.5"/>
-    <col customWidth="1" min="11" max="11" width="16.0"/>
+    <col customWidth="1" min="5" max="6" width="7.13"/>
+    <col customWidth="1" min="7" max="7" width="14.5"/>
+    <col customWidth="1" min="8" max="8" width="8.63"/>
+    <col customWidth="1" min="9" max="10" width="18.0"/>
+    <col customWidth="1" min="11" max="11" width="90.5"/>
+    <col customWidth="1" min="12" max="12" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
@@ -982,27 +1142,28 @@
       <c r="E2" s="1">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="1">
         <v>6.0</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>51</v>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1">
         <v>1.0</v>
@@ -1010,27 +1171,28 @@
       <c r="E3" s="1">
         <v>2.0</v>
       </c>
-      <c r="F3" s="1">
-        <v>2.0</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="1">
         <v>8.0</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="3" t="s">
-        <v>55</v>
+      <c r="J3" s="1"/>
+      <c r="K3" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1">
         <v>1.0</v>
@@ -1038,27 +1200,28 @@
       <c r="E4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="1">
         <v>6.0</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="3" t="s">
-        <v>58</v>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1">
         <v>2.0</v>
@@ -1066,27 +1229,28 @@
       <c r="E5" s="1">
         <v>1.0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>3.0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>5.0</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="3" t="s">
-        <v>61</v>
+      <c r="J5" s="1"/>
+      <c r="K5" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
@@ -1094,28 +1258,29 @@
       <c r="E6" s="1">
         <v>1.0</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="1">
         <v>15.0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>64</v>
+      <c r="I6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
@@ -1123,29 +1288,30 @@
       <c r="E7" s="1">
         <v>1.0</v>
       </c>
-      <c r="F7" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="1">
         <v>6.0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="3" t="s">
-        <v>67</v>
+      <c r="I7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1">
         <v>2.0</v>
@@ -1153,27 +1319,28 @@
       <c r="E8" s="1">
         <v>1.0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>8.0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>6.0</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="3" t="s">
-        <v>70</v>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6">
         <v>1.0</v>
@@ -1181,27 +1348,28 @@
       <c r="E9" s="6">
         <v>2.0</v>
       </c>
-      <c r="F9" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="6">
         <v>5.0</v>
       </c>
-      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>74</v>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6">
         <v>1.0</v>
@@ -1209,29 +1377,30 @@
       <c r="E10" s="6">
         <v>2.0</v>
       </c>
-      <c r="F10" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="6">
         <v>6.0</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D11" s="6">
         <v>1.0</v>
@@ -1239,29 +1408,30 @@
       <c r="E11" s="6">
         <v>2.0</v>
       </c>
-      <c r="F11" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="6">
         <v>6.0</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6">
         <v>1.0</v>
@@ -1269,29 +1439,30 @@
       <c r="E12" s="6">
         <v>2.0</v>
       </c>
-      <c r="F12" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="6">
         <v>5.0</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>84</v>
+        <v>100</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6">
         <v>2.0</v>
@@ -1299,27 +1470,28 @@
       <c r="E13" s="6">
         <v>2.0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>5.0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>46300.0</v>
       </c>
-      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>88</v>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D14" s="6">
         <v>1.0</v>
@@ -1327,170 +1499,309 @@
       <c r="E14" s="6">
         <v>2.0</v>
       </c>
-      <c r="F14" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="H14" s="6">
         <v>4.0</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="J15" s="4"/>
+      <c r="D15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16">
-      <c r="J16" s="4"/>
+      <c r="A16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17">
-      <c r="J17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-1.0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18">
-      <c r="J18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="19">
-      <c r="J19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20">
-      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21">
-      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22">
-      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23">
-      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24">
-      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25">
-      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26">
-      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27">
-      <c r="D27" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E27" s="1"/>
-      <c r="J27" s="4"/>
+      <c r="F27" s="1"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28">
-      <c r="D28" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E28" s="1"/>
-      <c r="J28" s="4"/>
+      <c r="F28" s="1"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29">
-      <c r="D29" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E29" s="1"/>
-      <c r="J29" s="4"/>
+      <c r="F29" s="1"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30">
-      <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E30" s="1"/>
-      <c r="J30" s="4"/>
+      <c r="F30" s="1"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31">
-      <c r="D31" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E31" s="1"/>
-      <c r="J31" s="4"/>
+      <c r="F31" s="1"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32">
-      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33">
-      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34">
-      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35">
-      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36">
-      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37">
-      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38">
-      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39">
-      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40">
-      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41">
-      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42">
-      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43">
-      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44">
-      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45">
-      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46">
-      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47">
-      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48">
-      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49">
-      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50">
-      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
     </row>
     <row r="51">
-      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
     </row>
     <row r="52">
-      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
     </row>
     <row r="53">
-      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
     </row>
     <row r="54">
-      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
     </row>
     <row r="55">
-      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
     </row>
     <row r="56">
-      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
     </row>
     <row r="57">
-      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1516,70 +1827,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1">
         <v>1.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1">
         <v>1.0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -1762,53 +2073,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1">
         <v>0.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
